--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.93737866666667</v>
+        <v>35.77148166666667</v>
       </c>
       <c r="H2">
-        <v>122.812136</v>
+        <v>107.314445</v>
       </c>
       <c r="I2">
-        <v>0.1310914068304752</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="J2">
-        <v>0.1368503435998189</v>
+        <v>0.1112463097643854</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>373.0472804797769</v>
+        <v>394.5128683142033</v>
       </c>
       <c r="R2">
-        <v>3357.425524317992</v>
+        <v>3550.61581482783</v>
       </c>
       <c r="S2">
-        <v>0.1308520163336528</v>
+        <v>0.1058641704420874</v>
       </c>
       <c r="T2">
-        <v>0.1366004365118047</v>
+        <v>0.1112463097643854</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.93737866666667</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H3">
-        <v>122.812136</v>
+        <v>424.499008</v>
       </c>
       <c r="I3">
-        <v>0.1310914068304752</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="J3">
-        <v>0.1368503435998189</v>
+        <v>0.4400521117044616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.6824806855448889</v>
+        <v>1560.557120177195</v>
       </c>
       <c r="R3">
-        <v>6.142326169904</v>
+        <v>14045.01408159475</v>
       </c>
       <c r="S3">
-        <v>0.0002393904968224625</v>
+        <v>0.4187622210170216</v>
       </c>
       <c r="T3">
-        <v>0.0002499070880141731</v>
+        <v>0.4400521117044616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.4996693333333</v>
+        <v>52.33127733333333</v>
       </c>
       <c r="H4">
-        <v>424.499008</v>
+        <v>156.993832</v>
       </c>
       <c r="I4">
-        <v>0.4531162307677896</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="J4">
-        <v>0.4730219422499276</v>
+        <v>0.1627458863135329</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1289.434461922909</v>
+        <v>577.1458536635787</v>
       </c>
       <c r="R4">
-        <v>11604.91015730618</v>
+        <v>5194.312682972209</v>
       </c>
       <c r="S4">
-        <v>0.4522887797378216</v>
+        <v>0.1548721776383825</v>
       </c>
       <c r="T4">
-        <v>0.4721581407201327</v>
+        <v>0.1627458863135329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.4996693333333</v>
+        <v>49.043167</v>
       </c>
       <c r="H5">
-        <v>424.499008</v>
+        <v>98.08633399999999</v>
       </c>
       <c r="I5">
-        <v>0.4531162307677896</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="J5">
-        <v>0.4730219422499276</v>
+        <v>0.1016800925151965</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>2.358988154012445</v>
+        <v>540.882277806566</v>
       </c>
       <c r="R5">
-        <v>21.230893386112</v>
+        <v>3245.293666839396</v>
       </c>
       <c r="S5">
-        <v>0.0008274510299679383</v>
+        <v>0.1451411557029742</v>
       </c>
       <c r="T5">
-        <v>0.0008638015297949477</v>
+        <v>0.1016800925151965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.22149733333334</v>
+        <v>59.25420133333333</v>
       </c>
       <c r="H6">
-        <v>123.664492</v>
+        <v>177.762604</v>
       </c>
       <c r="I6">
-        <v>0.1320012236515131</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="J6">
-        <v>0.1378001293072295</v>
+        <v>0.1842755997024237</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>375.6363494281472</v>
+        <v>653.4966917365307</v>
       </c>
       <c r="R6">
-        <v>3380.727144853324</v>
+        <v>5881.470225628776</v>
       </c>
       <c r="S6">
-        <v>0.1317601717071094</v>
+        <v>0.1753602751995342</v>
       </c>
       <c r="T6">
-        <v>0.1375484877830851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>41.22149733333334</v>
-      </c>
-      <c r="H7">
-        <v>123.664492</v>
-      </c>
-      <c r="I7">
-        <v>0.1320012236515131</v>
-      </c>
-      <c r="J7">
-        <v>0.1378001293072295</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>0.6872173225431112</v>
-      </c>
-      <c r="R7">
-        <v>6.184955902888</v>
-      </c>
-      <c r="S7">
-        <v>0.0002410519444037473</v>
-      </c>
-      <c r="T7">
-        <v>0.0002516415241444218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>39.42425350000001</v>
-      </c>
-      <c r="H8">
-        <v>78.84850700000001</v>
-      </c>
-      <c r="I8">
-        <v>0.1262460133717474</v>
-      </c>
-      <c r="J8">
-        <v>0.08786139242202191</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>359.2587271616299</v>
-      </c>
-      <c r="R8">
-        <v>2155.55236296978</v>
-      </c>
-      <c r="S8">
-        <v>0.1260154712134654</v>
-      </c>
-      <c r="T8">
-        <v>0.08770094573148772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>39.42425350000001</v>
-      </c>
-      <c r="H9">
-        <v>78.84850700000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1262460133717474</v>
-      </c>
-      <c r="J9">
-        <v>0.08786139242202191</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>0.6572548715163334</v>
-      </c>
-      <c r="R9">
-        <v>3.943529229098</v>
-      </c>
-      <c r="S9">
-        <v>0.0002305421582819724</v>
-      </c>
-      <c r="T9">
-        <v>0.0001604466905341924</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>49.198377</v>
-      </c>
-      <c r="H10">
-        <v>147.595131</v>
-      </c>
-      <c r="I10">
-        <v>0.1575451253784747</v>
-      </c>
-      <c r="J10">
-        <v>0.1644661924210021</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>448.326720997723</v>
-      </c>
-      <c r="R10">
-        <v>4034.940488979507</v>
-      </c>
-      <c r="S10">
-        <v>0.157257426842406</v>
-      </c>
-      <c r="T10">
-        <v>0.164165855087945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>49.198377</v>
-      </c>
-      <c r="H11">
-        <v>147.595131</v>
-      </c>
-      <c r="I11">
-        <v>0.1575451253784747</v>
-      </c>
-      <c r="J11">
-        <v>0.1644661924210021</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>0.820202542426</v>
-      </c>
-      <c r="R11">
-        <v>7.381822881834</v>
-      </c>
-      <c r="S11">
-        <v>0.0002876985360686703</v>
-      </c>
-      <c r="T11">
-        <v>0.0003003373330570556</v>
+        <v>0.1842755997024237</v>
       </c>
     </row>
   </sheetData>
